--- a/Paper Figures/Conformance Testing/Superdense Coding results.xlsx
+++ b/Paper Figures/Conformance Testing/Superdense Coding results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\Work\Quantum-Algorithm-Implementations\Paper Figures\Conformance Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7CDA88-78B9-463C-8691-B64E399C0B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB03814-D8D6-4469-A109-AF01EFAC8329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-4755" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="16">
   <si>
     <t>10000 shots</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Decode message, 01</t>
+  </si>
+  <si>
+    <t>Q# Superdense Coding</t>
   </si>
 </sst>
 </file>
@@ -431,7 +434,7 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,7 +457,7 @@
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
